--- a/nitikorn worked june.xlsx
+++ b/nitikorn worked june.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Section</t>
   </si>
@@ -38,52 +38,64 @@
     <t>Income calculation</t>
   </si>
   <si>
-    <t>Income history</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <t>Top WP team</t>
-  </si>
-  <si>
-    <t>Sorting member’s WP in team to support client to lookup 'Max of the day/month/week'.</t>
-  </si>
-  <si>
-    <t>Income simulation api</t>
-  </si>
-  <si>
-    <t>Develop function to simulate income.</t>
-  </si>
-  <si>
-    <t>Rule configuration</t>
-  </si>
-  <si>
-    <t>Income report</t>
-  </si>
-  <si>
-    <t>Develop report to display WP calculation in detail for all levels.</t>
-  </si>
-  <si>
-    <t>Batch schedule</t>
-  </si>
-  <si>
-    <t>Create batch schedule to run WP calculation daily.</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Calculate total WP</t>
-  </si>
-  <si>
-    <t>Develop function to calculate member’s WP from order.</t>
-  </si>
-  <si>
-    <t>Store income history in to the database.</t>
-  </si>
-  <si>
-    <t>Coding to support user can be able to change rules for unilevel / cash back configuration in database.</t>
+    <t>Design/Create database to store member's bank information</t>
+  </si>
+  <si>
+    <t>Bank Information</t>
+  </si>
+  <si>
+    <t>Develop API to insert member's bank information</t>
+  </si>
+  <si>
+    <t>Develop API to inquiry member's bank information</t>
+  </si>
+  <si>
+    <t>Develop API to get all available bank name in the system.</t>
+  </si>
+  <si>
+    <t>Income Calculation</t>
+  </si>
+  <si>
+    <t>Modify API to get total WP by specific period for all level</t>
+  </si>
+  <si>
+    <t>Income Report</t>
+  </si>
+  <si>
+    <t>Add field percent in income weekly report level detail</t>
+  </si>
+  <si>
+    <t>Add field percent in income monthly report level detail</t>
+  </si>
+  <si>
+    <t>Add field wp to parent in income monthly report  level detail</t>
+  </si>
+  <si>
+    <t>Add field inviter to parent in income monthly report level detail</t>
+  </si>
+  <si>
+    <t>Add field wp to parent in income weekly report level detail</t>
+  </si>
+  <si>
+    <t>Add field inviter to parent in income weekly report level detail</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Create new link menu for "income_from_member" to see detail of member's business wp</t>
+  </si>
+  <si>
+    <t>Create new link menu for "income_to_member" to see detail of member's general wp</t>
+  </si>
+  <si>
+    <t>Create API to export data to excel file</t>
   </si>
 </sst>
 </file>
@@ -140,18 +152,17 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW10"/>
+  <dimension ref="A1:IW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1"/>
@@ -460,7 +471,7 @@
     <col min="6" max="257" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -488,7 +499,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -498,107 +509,141 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -610,9 +655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1"/>
@@ -622,7 +669,7 @@
     <col min="6" max="257" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -650,64 +697,88 @@
       <c r="E2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75">
+    <row r="9" spans="1:6">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
+    <row r="10" spans="1:6">
       <c r="F10" s="2"/>
     </row>
   </sheetData>
